--- a/docs/attack-excel-files/v17.1/mobile-attack/mobile-attack-v17.1-mitigations.xlsx
+++ b/docs/attack-excel-files/v17.1/mobile-attack/mobile-attack-v17.1-mitigations.xlsx
@@ -302,7 +302,7 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Android App Links),(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Samsung Keyboards),(Citation: Android Notification Listeners)</t>
@@ -314,7 +314,7 @@
     <t>(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
-    <t>(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2),(Citation: Android Capture Sensor 2019),(Citation: Android Changes to System Broadcasts),(Citation: Elcomsoft-iOSRestricted),(Citation: Android Package Visibility),(Citation: app_hibernation),(Citation: GoogleIO2016),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: Android 12 Features),(Citation: Trend Micro iOS URL Hijacking),(Citation: TelephonyManager),(Citation: Android 10 Privacy Changes),(Citation: LauncherApps getActivityList),(Citation: Android 10 Execute)</t>
+    <t>(Citation: Android Changes to System Broadcasts),(Citation: Trend Micro iOS URL Hijacking),(Citation: Elcomsoft-iOSRestricted),(Citation: Android Package Visibility),(Citation: Android Capture Sensor 2019),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList),(Citation: app_hibernation),(Citation: Android 10 Privacy Changes),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2),(Citation: GoogleIO2016),(Citation: Android 10 Execute),(Citation: Android 12 Features),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>(Citation: SMS KitKat)</t>

--- a/docs/attack-excel-files/v17.1/mobile-attack/mobile-attack-v17.1-mitigations.xlsx
+++ b/docs/attack-excel-files/v17.1/mobile-attack/mobile-attack-v17.1-mitigations.xlsx
@@ -302,7 +302,7 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>(Citation: Android App Links),(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Samsung Keyboards),(Citation: Android Notification Listeners)</t>
@@ -314,7 +314,7 @@
     <t>(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
-    <t>(Citation: Android Changes to System Broadcasts),(Citation: Trend Micro iOS URL Hijacking),(Citation: Elcomsoft-iOSRestricted),(Citation: Android Package Visibility),(Citation: Android Capture Sensor 2019),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList),(Citation: app_hibernation),(Citation: Android 10 Privacy Changes),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2),(Citation: GoogleIO2016),(Citation: Android 10 Execute),(Citation: Android 12 Features),(Citation: TelephonyManager)</t>
+    <t>(Citation: Android 10 Execute),(Citation: TelephonyManager),(Citation: Android Changes to System Broadcasts),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: Android 10 Privacy Changes),(Citation: Android Package Visibility),(Citation: Android Capture Sensor 2019),(Citation: GoogleIO2016),(Citation: Trend Micro iOS URL Hijacking),(Citation: app_hibernation),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2),(Citation: Android 12 Features),(Citation: LauncherApps getActivityList),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
     <t>(Citation: SMS KitKat)</t>
